--- a/AjoutExemples/ig/all-profiles.xlsx
+++ b/AjoutExemples/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T08:56:46+00:00</t>
+    <t>2024-04-26T09:05:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/AjoutExemples/ig/all-profiles.xlsx
+++ b/AjoutExemples/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T09:05:32+00:00</t>
+    <t>2024-04-26T09:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
